--- a/src/output/도서관리_테이블 정의서.xlsx
+++ b/src/output/도서관리_테이블 정의서.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>테이블정의서</t>
   </si>
@@ -194,6 +194,24 @@
   </si>
   <si>
     <t>UNI</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도서 등록자 </t>
+  </si>
+  <si>
+    <t>등록자</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>auto_incridement</t>
+  </si>
+  <si>
+    <t>uto_incridement</t>
   </si>
 </sst>
 </file>
@@ -1169,12 +1187,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
   <cols>
     <col min="3" max="3" width="14.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="13.00500033" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1297,7 +1316,9 @@
         <v>35</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
@@ -1313,7 +1334,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="7">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>31</v>
@@ -1336,7 +1357,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="7">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>31</v>
@@ -1381,9 +1402,7 @@
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
-        <v>20</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1392,13 +1411,25 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -1425,12 +1456,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
   <cols>
     <col min="3" max="3" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="13.11611101" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1553,7 +1585,9 @@
         <v>35</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
@@ -1589,7 +1623,9 @@
       <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
@@ -1679,12 +1715,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
   <cols>
     <col min="3" max="3" width="14.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="13.56055567" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1807,7 +1844,9 @@
         <v>35</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
@@ -1825,7 +1864,9 @@
       <c r="E7" s="7">
         <v>255</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="7" t="s">
         <v>58</v>
       </c>
@@ -1848,7 +1889,9 @@
       <c r="E8" s="7">
         <v>255</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>

--- a/src/output/도서관리_테이블 정의서.xlsx
+++ b/src/output/도서관리_테이블 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild=""/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="book" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>테이블정의서</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>uto_incridement</t>
+  </si>
+  <si>
+    <t>registrant</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1190,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
@@ -1400,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
@@ -1415,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>61</v>
@@ -1455,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
@@ -1651,7 +1654,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1674,7 +1677,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1714,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
